--- a/src/main/resources/ExcelData.xlsx
+++ b/src/main/resources/ExcelData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="47">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,87 @@
   <si>
     <t>字符包含校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-9}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-10}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-11}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-12}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-13}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-14}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-15}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-16}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-17}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-18}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-19}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-20}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-21}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-22}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-23}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-24}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-25}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-26}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-27}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-28}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-29}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-30}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-31}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-32}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-33}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-34}</t>
+  </si>
+  <si>
+    <t>{Content-Type: application/json;charset=UTF-35}</t>
   </si>
 </sst>
 </file>
@@ -458,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,6 +620,870 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/ExcelData.xlsx
+++ b/src/main/resources/ExcelData.xlsx
@@ -1,179 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头信息</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>返回值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值校验</t>
+  </si>
+  <si>
+    <t>josnPath校验</t>
+  </si>
+  <si>
+    <t>字符包含校验</t>
+  </si>
+  <si>
+    <t>日期转化接口</t>
+  </si>
+  <si>
+    <t>百度测试1号</t>
+  </si>
+  <si>
+    <t>Bridge/UtilLongtime</t>
   </si>
   <si>
     <t>{Content-Type: application/json;charset=UTF-8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bridge/UtilLongtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Longtime":"1534348800000","fomat":"yyyy-MM-dd HH:mm:ss"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>{"stringDate":"2018-08-16 00:00:00","stringDateTolong":"1534348800000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Longtime":"1534348800000","fomat":"yyyy-MM-dd HH:mm:ss"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"/stringDate":"2018-08-16 00:00:00","/stringDateTolong":"1534348800000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{2018-08-16 00:00:00，1534348800000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试接口自动发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期转化接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>josnPath校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符包含校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度测试2号</t>
   </si>
   <si>
     <t>{Content-Type: application/json;charset=UTF-9}</t>
   </si>
   <si>
+    <t>百度测试3号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-10}</t>
   </si>
   <si>
+    <t>百度测试4号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-11}</t>
   </si>
   <si>
+    <t>百度测试5号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-12}</t>
   </si>
   <si>
+    <t>百度测试6号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-13}</t>
   </si>
   <si>
+    <t>百度测试7号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-14}</t>
   </si>
   <si>
+    <t>百度测试8号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-15}</t>
   </si>
   <si>
+    <t>百度测试9号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-16}</t>
   </si>
   <si>
+    <t>百度测试10号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-17}</t>
   </si>
   <si>
+    <t>百度测试11号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-18}</t>
   </si>
   <si>
+    <t>百度测试12号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-19}</t>
   </si>
   <si>
+    <t>百度测试13号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-20}</t>
   </si>
   <si>
+    <t>百度测试14号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-21}</t>
   </si>
   <si>
+    <t>百度测试15号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-22}</t>
   </si>
   <si>
+    <t>百度测试16号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-23}</t>
   </si>
   <si>
+    <t>百度测试17号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-24}</t>
   </si>
   <si>
+    <t>百度测试18号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-25}</t>
   </si>
   <si>
+    <t>百度测试19号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-26}</t>
   </si>
   <si>
+    <t>百度测试20号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-27}</t>
   </si>
   <si>
+    <t>百度测试21号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-28}</t>
   </si>
   <si>
+    <t>百度测试22号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-29}</t>
   </si>
   <si>
+    <t>百度测试23号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-30}</t>
   </si>
   <si>
+    <t>百度测试24号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-31}</t>
   </si>
   <si>
+    <t>百度测试25号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-32}</t>
   </si>
   <si>
+    <t>百度测试26号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-33}</t>
   </si>
   <si>
+    <t>百度测试27号</t>
+  </si>
+  <si>
     <t>{Content-Type: application/json;charset=UTF-34}</t>
+  </si>
+  <si>
+    <t>百度测试28号</t>
   </si>
   <si>
     <t>{Content-Type: application/json;charset=UTF-35}</t>
@@ -182,32 +243,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,32 +614,321 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -533,989 +1219,995 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="54.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="79.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/ExcelData.xlsx
+++ b/src/main/resources/ExcelData.xlsx
@@ -42,7 +42,7 @@
     <t>返回值校验</t>
   </si>
   <si>
-    <t>josnPath校验</t>
+    <t>jsonPath校验</t>
   </si>
   <si>
     <t>字符包含校验</t>
@@ -69,10 +69,10 @@
     <t>{"code":200,"msg":"成功!","data":{"key":"00d91e8e0cca2b76f515926a36db68f5","phone":"13594347817","name":"peakchao","passwd":"123456","text":"这是鬼签名。","img":"https://res.apiopen.top/2018031820405521.key.png","other":"这是我的备注信息1","other2":"这是我的备注信息2","createTime":"2018-03-18 20:40:55"}}</t>
   </si>
   <si>
-    <t>{"code":"200","data.key":"00d91e8e0cca2b76f515926a36db68f5"}</t>
-  </si>
-  <si>
-    <t>123456,成功!</t>
+    <t>{"code":"200","data.key":"hello"}</t>
+  </si>
+  <si>
+    <t>123456,失败!</t>
   </si>
   <si>
     <t>百度测试2号</t>
@@ -87,13 +87,13 @@
     <t>{"code":200,"msg":"成功!","data":{"key":"00d91e8e0cca2b76f515926a36db68f5","phone":"13594347817","name":"peakchao","passwd":"123456","text":"这是我的签名。","img":"https://res.apiopen.top/2018031820405521.key.png","other":"这是我的备注信息1","other2":"这是我的备注信息2","createTime":"2018-03-18 20:40:55"}}</t>
   </si>
   <si>
-    <t>{"code":"200","data.key":"hello"}</t>
+    <t>123456,成功!</t>
   </si>
   <si>
     <t>百度测试3号</t>
   </si>
   <si>
-    <t>123456,失败!</t>
+    <t>{"code":"200","data.key":"00d91e8e0cca2b76f515926a36db68f5"}</t>
   </si>
   <si>
     <t>百度测试4号</t>
@@ -177,9 +177,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,28 +187,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,53 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -297,7 +230,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +296,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +317,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,61 +349,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,121 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +554,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +582,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,6 +613,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,49 +655,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,8 +1161,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1234,10 +1234,10 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1267,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:10">
@@ -1299,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:10">
@@ -1331,10 +1331,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:10">
@@ -1363,10 +1363,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:10">
@@ -1395,10 +1395,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:10">
@@ -1427,10 +1427,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:10">
@@ -1459,10 +1459,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:10">
@@ -1491,10 +1491,10 @@
         <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:10">
@@ -1523,10 +1523,10 @@
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:10">
@@ -1555,10 +1555,10 @@
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:10">
@@ -1587,10 +1587,10 @@
         <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:10">
@@ -1619,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:10">
@@ -1651,10 +1651,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:10">
@@ -1683,10 +1683,10 @@
         <v>21</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:10">
@@ -1715,10 +1715,10 @@
         <v>21</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:10">
@@ -1747,10 +1747,10 @@
         <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:10">
@@ -1779,10 +1779,10 @@
         <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:10">
@@ -1811,10 +1811,10 @@
         <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:10">
@@ -1843,10 +1843,10 @@
         <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:10">
@@ -1875,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:10">
@@ -1907,10 +1907,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:10">
@@ -1939,10 +1939,10 @@
         <v>21</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:10">
@@ -1971,10 +1971,10 @@
         <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:10">
@@ -2003,10 +2003,10 @@
         <v>21</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:10">
@@ -2035,10 +2035,10 @@
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:10">
@@ -2067,10 +2067,10 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="19" customHeight="1" spans="1:10">
@@ -2099,10 +2099,10 @@
         <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/ExcelData.xlsx
+++ b/src/main/resources/ExcelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="20520" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>用例名称</t>
   </si>
@@ -69,7 +69,7 @@
     <t>{"code":200,"msg":"成功!","data":{"key":"00d91e8e0cca2b76f515926a36db68f5","phone":"13594347817","name":"peakchao","passwd":"123456","text":"这是鬼签名。","img":"https://res.apiopen.top/2018031820405521.key.png","other":"这是我的备注信息1","other2":"这是我的备注信息2","createTime":"2018-03-18 20:40:55"}}</t>
   </si>
   <si>
-    <t>{"code":"200","data.key":"hello"}</t>
+    <t>{"code":"210","data.key":"hello"}</t>
   </si>
   <si>
     <t>123456,失败!</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>{"code":200,"msg":"成功!","data":{"key":"00d91e8e0cca2b76f515926a36db68f5","phone":"13594347817","name":"peakchao","passwd":"123456","text":"这是我的签名。","img":"https://res.apiopen.top/2018031820405521.key.png","other":"这是我的备注信息1","other2":"这是我的备注信息2","createTime":"2018-03-18 20:40:55"}}</t>
+  </si>
+  <si>
+    <t>{"code":"200","data.key":"hello"}</t>
   </si>
   <si>
     <t>123456,成功!</t>
@@ -177,9 +180,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,6 +190,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,8 +223,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,50 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +314,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -310,29 +330,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,25 +352,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,49 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,91 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,11 +561,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,8 +633,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,38 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1174,7 +1177,7 @@
     <col min="5" max="5" width="39" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.1916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="67.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="40.375" style="1" customWidth="1"/>
   </cols>
@@ -1267,10 +1270,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:10">
@@ -1278,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1299,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
@@ -1310,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1331,10 +1334,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:10">
@@ -1342,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1363,10 +1366,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:10">
@@ -1374,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1395,10 +1398,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:10">
@@ -1406,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1427,10 +1430,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:10">
@@ -1438,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1459,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:10">
@@ -1470,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1491,10 +1494,10 @@
         <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:10">
@@ -1502,7 +1505,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1523,10 +1526,10 @@
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:10">
@@ -1534,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1555,10 +1558,10 @@
         <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:10">
@@ -1566,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1587,10 +1590,10 @@
         <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:10">
@@ -1598,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1619,10 +1622,10 @@
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:10">
@@ -1630,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1651,10 +1654,10 @@
         <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:10">
@@ -1662,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -1683,10 +1686,10 @@
         <v>21</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:10">
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1715,10 +1718,10 @@
         <v>21</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:10">
@@ -1726,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1747,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:10">
@@ -1758,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -1779,10 +1782,10 @@
         <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:10">
@@ -1790,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -1811,10 +1814,10 @@
         <v>21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:10">
@@ -1822,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -1843,10 +1846,10 @@
         <v>21</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:10">
@@ -1854,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -1875,10 +1878,10 @@
         <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:10">
@@ -1886,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1907,10 +1910,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:10">
@@ -1918,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1939,10 +1942,10 @@
         <v>21</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:10">
@@ -1950,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1971,10 +1974,10 @@
         <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:10">
@@ -1982,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -2003,10 +2006,10 @@
         <v>21</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:10">
@@ -2014,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -2035,10 +2038,10 @@
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:10">
@@ -2046,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
@@ -2067,10 +2070,10 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="19" customHeight="1" spans="1:10">
@@ -2078,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -2099,10 +2102,10 @@
         <v>21</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
